--- a/humbi/bin/InputDataSet.xlsx
+++ b/humbi/bin/InputDataSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d3ef62d27b79783/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammed.ishrath\git\Automate\humbi\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{92893403-903E-4AB8-8C46-2208F064AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E211F008-8DFF-49B7-AF0A-77108144198C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF33D7A6-B509-440F-837C-98C1EB5187AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB7FC5F6-8124-40AC-AA69-B7B1AFDB2FD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB7FC5F6-8124-40AC-AA69-B7B1AFDB2FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -382,18 +382,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0F2EC2-3897-4299-A434-2AF6BC045F25}">
-  <dimension ref="A1:AY26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="4.81640625" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -547,8 +547,11 @@
       <c r="AY1">
         <v>1</v>
       </c>
+      <c r="AZ1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -702,8 +705,11 @@
       <c r="AY2">
         <v>2</v>
       </c>
+      <c r="AZ2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="AY3">
         <v>3</v>
       </c>
+      <c r="AZ3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1012,8 +1021,11 @@
       <c r="AY4">
         <v>4</v>
       </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3183,7 +3195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3338,7 +3350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3493,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3803,7 +3815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3958,7 +3970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4268,7 +4280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
